--- a/data.xlsx
+++ b/data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHAT AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHUB\feature_importance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FEAA7D-0982-4628-9462-564887A10ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51BC9D-D8E0-42D4-833F-B0CBB1FA2DC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5595" activeTab="2" xr2:uid="{C9FB9746-CC01-46A9-8C53-C1ED7A5D0817}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -427,209 +427,209 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">ROUND(20*RAND(),0)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <f ca="1">ROUND(29*RAND(),0)</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f ca="1">ROUND(200*RAND(),0)</f>
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="D2">
         <f ca="1">ROUND(RAND()*41,0)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <f ca="1">F2</f>
-        <v>64</v>
+        <v>392</v>
       </c>
       <c r="F2">
         <f ca="1">1*B2+2*C2</f>
-        <v>64</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="0">ROUND(20*RAND(),0)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">ROUND(29*RAND(),0)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="2">ROUND(200*RAND(),0)</f>
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="3">ROUND(RAND()*41,0)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="4">F3</f>
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="5">1*B3+2*C3</f>
-        <v>252</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="5"/>
-        <v>260</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>289</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="2"/>
-        <v>183</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="2"/>
-        <v>191</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>384</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,41 +639,41 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>260</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
@@ -687,319 +687,319 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>145</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>159</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>176</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>338</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>324</v>
+        <v>146</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>324</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>200</v>
+        <v>331</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>246</v>
+        <v>409</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>246</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>400</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>400</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>173</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="2"/>
-        <v>170</v>
-      </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>356</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>356</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
-        <v>166</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
@@ -1007,383 +1007,383 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
-        <v>194</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>252</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>158</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>144</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>344</v>
+        <v>198</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>344</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>133</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>398</v>
+        <v>30</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>398</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>234</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>180</v>
+        <v>347</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>180</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>341</v>
+        <v>22</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>341</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,413 +1393,413 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>402</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>339</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
-        <v>170</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>333</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>292</v>
+        <v>70</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
-        <v>292</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>140</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>265</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
-        <v>131</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="5"/>
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="5"/>
-        <v>174</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="5"/>
-        <v>344</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="5"/>
-        <v>307</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="2"/>
         <v>18</v>
       </c>
-      <c r="B52">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="2"/>
-        <v>56</v>
-      </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="5"/>
-        <v>138</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="5"/>
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,127 +1809,127 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>417</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="5"/>
-        <v>417</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="5"/>
-        <v>403</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="5"/>
-        <v>146</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,55 +1939,55 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="5"/>
-        <v>293</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
@@ -1995,435 +1995,435 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="5"/>
-        <v>138</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="5"/>
-        <v>395</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="5"/>
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="5"/>
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="5"/>
-        <v>370</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="6">ROUND(20*RAND(),0)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="7">ROUND(29*RAND(),0)</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" ca="1" si="8">ROUND(200*RAND(),0)</f>
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D101" ca="1" si="9">ROUND(RAND()*41,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" ca="1" si="10">F67</f>
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="11">1*B67+2*C67</f>
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="10"/>
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="11"/>
-        <v>158</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="9"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="10"/>
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="11"/>
-        <v>167</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="8"/>
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="10"/>
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="11"/>
-        <v>236</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="8"/>
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="10"/>
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="11"/>
-        <v>330</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="10"/>
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="11"/>
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="8"/>
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="10"/>
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="11"/>
-        <v>316</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="8"/>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="10"/>
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="11"/>
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="10"/>
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="11"/>
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="11"/>
-        <v>110</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="11"/>
-        <v>111</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2433,81 +2433,81 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="8"/>
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="10"/>
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="11"/>
-        <v>326</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="8"/>
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="10"/>
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="11"/>
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="7"/>
@@ -2515,389 +2515,389 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="8"/>
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="10"/>
-        <v>252</v>
+        <v>398</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="11"/>
-        <v>252</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="8"/>
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="10"/>
-        <v>390</v>
+        <v>153</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="11"/>
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="11"/>
-        <v>106</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="8"/>
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="10"/>
-        <v>401</v>
+        <v>89</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="11"/>
-        <v>401</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="11"/>
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="10"/>
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="11"/>
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="10"/>
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="11"/>
-        <v>162</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="8"/>
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="10"/>
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="11"/>
-        <v>247</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="11"/>
-        <v>153</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="10"/>
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="11"/>
-        <v>146</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="10"/>
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="11"/>
-        <v>182</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="8"/>
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="10"/>
-        <v>385</v>
+        <v>166</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="11"/>
-        <v>385</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="7"/>
@@ -2905,111 +2905,111 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="10"/>
-        <v>131</v>
+        <v>389</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="11"/>
-        <v>131</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="8"/>
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="11"/>
-        <v>318</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="10"/>
-        <v>186</v>
+        <v>383</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="11"/>
-        <v>186</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
-      </c>
-      <c r="B101">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="8"/>
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="9"/>
@@ -3017,11 +3017,11 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="10"/>
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="11"/>
-        <v>323</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3062,105 +3062,105 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">ROUND(9*RAND(),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <f ca="1">ROUND(100*RAND(),0)</f>
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F17" ca="1" si="0">ROUND(100*RAND(),0)</f>
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="1">ROUND(9*RAND(),0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:F34" ca="1" si="2">ROUND(100*RAND(),0)</f>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3170,55 +3170,55 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
@@ -3226,201 +3226,201 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3430,413 +3430,413 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3846,179 +3846,179 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F66" ca="1" si="3">ROUND(100*RAND(),0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4028,231 +4028,231 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,75 +4262,75 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4340,75 +4340,75 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4418,153 +4418,153 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4574,231 +4574,231 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="4">ROUND(9*RAND(),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F101" ca="1" si="5">ROUND(100*RAND(),0)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4808,101 +4808,101 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
-      </c>
-      <c r="F72">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,37 +4912,37 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
@@ -4950,11 +4950,11 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,23 +4964,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4990,23 +4990,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5016,179 +5016,179 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
         <v>95</v>
       </c>
-      <c r="C80">
-        <f t="shared" ca="1" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="D80">
+      <c r="F80">
         <f t="shared" ca="1" si="5"/>
         <v>30</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="F80">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,49 +5198,49 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -5254,45 +5254,45 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,179 +5302,179 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="5"/>
         <v>42</v>
-      </c>
-      <c r="C91">
-        <f t="shared" ca="1" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E91">
-        <f t="shared" ca="1" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="F91">
-        <f t="shared" ca="1" si="5"/>
-        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -5484,49 +5484,49 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
-      <c r="B96">
-        <f t="shared" ca="1" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="C96">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="5"/>
-        <v>16</v>
-      </c>
       <c r="F96">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5536,127 +5536,127 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
-      <c r="C98">
-        <f t="shared" ca="1" si="5"/>
-        <v>38</v>
-      </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="5"/>
         <v>13</v>
       </c>
-      <c r="C99">
-        <f t="shared" ca="1" si="5"/>
-        <v>67</v>
-      </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="5"/>
         <v>79</v>
-      </c>
-      <c r="F99">
-        <f t="shared" ca="1" si="5"/>
-        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5669,7 +5669,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,703 +5700,703 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">ROUND(9*RAND(),0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:F17" ca="1" si="0">ROUND(100*RAND(),0)</f>
-        <v>54</v>
+        <f t="shared" ref="B2:E17" ca="1" si="0">ROUND(100*RAND(),0)</f>
+        <v>84</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <f ca="1">B2+C2</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="1">ROUND(9*RAND(),0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">B3+C3</f>
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
-      </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:D81" ca="1" si="3">ROUND(100*RAND(),0)</f>
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="C18:E81" ca="1" si="4">ROUND(100*RAND(),0)</f>
-        <v>46</v>
+        <f t="shared" ref="E18:E81" ca="1" si="4">ROUND(100*RAND(),0)</f>
+        <v>86</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="3"/>
-        <v>95</v>
-      </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6406,23 +6406,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6432,647 +6432,647 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>142</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="3"/>
-        <v>69</v>
-      </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7082,75 +7082,75 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7160,409 +7160,409 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="B66">
-        <f t="shared" ca="1" si="3"/>
-        <v>64</v>
-      </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="5">ROUND(9*RAND(),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">B67+C67</f>
-        <v>43</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="4"/>
         <v>78</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="4"/>
-        <v>45</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="B71">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="C71">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
-      </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>170</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
@@ -7572,27 +7572,27 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>155</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7602,335 +7602,335 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B82">
         <f t="shared" ref="B82:D101" ca="1" si="7">ROUND(100*RAND(),0)</f>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="C82:E101" ca="1" si="8">ROUND(100*RAND(),0)</f>
-        <v>100</v>
+        <f t="shared" ref="E82:E101" ca="1" si="8">ROUND(100*RAND(),0)</f>
+        <v>0</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -7940,23 +7940,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -7966,33 +7966,33 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="7"/>
@@ -8000,249 +8000,249 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
-      <c r="B97">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="C97">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
       <c r="D97">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -8252,49 +8252,49 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
